--- a/GenerateZaFoms/Template/ZaVkl.xlsx
+++ b/GenerateZaFoms/Template/ZaVkl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
@@ -919,8 +919,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1033,6 +1033,13 @@
       <sz val="5"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1083,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1207,14 +1214,32 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1228,43 +1253,42 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1302,7 +1326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1336,6 +1360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1370,9 +1395,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1545,12 +1571,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="4.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="16" customWidth="1"/>
@@ -1558,7 +1584,7 @@
     <col min="25" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1585,7 +1611,7 @@
       <c r="W1" s="35"/>
       <c r="X1" s="35"/>
     </row>
-    <row r="2" spans="1:24" ht="9" customHeight="1">
+    <row r="2" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1612,7 +1638,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1639,7 +1665,7 @@
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
     </row>
-    <row r="4" spans="1:24" ht="8.25" customHeight="1">
+    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1666,91 +1692,91 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="11.85" customHeight="1">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:24" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+    </row>
+    <row r="6" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-    </row>
-    <row r="7" spans="1:24" ht="32.1" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+    </row>
+    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-    </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+    </row>
+    <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1777,7 +1803,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" ht="11.85" customHeight="1">
+    <row r="9" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1831,7 @@
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1859,7 @@
       <c r="W10" s="57"/>
       <c r="X10" s="57"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -1853,7 +1879,7 @@
       <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
@@ -1867,7 +1893,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1">
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
@@ -1894,7 +1920,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +1930,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -1929,7 +1955,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" ht="8.25" customHeight="1">
+    <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -1958,7 +1984,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1988,7 +2014,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1">
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2017,63 +2043,63 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:24" ht="18.75" customHeight="1">
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="N17" s="62" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="N17" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-    </row>
-    <row r="18" spans="1:24" ht="42" customHeight="1">
-      <c r="B18" s="62" t="s">
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+    </row>
+    <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="N18" s="62" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="N18" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-    </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1">
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+    </row>
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -2102,147 +2128,147 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" ht="18.75" customHeight="1">
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="N20" s="62" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.75" customHeight="1">
-      <c r="B21" s="62" t="s">
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="N21" s="62" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="N21" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.75" customHeight="1">
-      <c r="B22" s="62" t="s">
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="N22" s="62" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="N22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="B23" s="62" t="s">
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="N23" s="62" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="N23" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-    </row>
-    <row r="24" spans="1:24" ht="31.7" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+    </row>
+    <row r="24" spans="1:24" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-    </row>
-    <row r="25" spans="1:24" ht="9" customHeight="1">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+    </row>
+    <row r="25" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2269,7 +2295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20.25" customHeight="1">
+    <row r="26" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -2278,7 +2304,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="7" t="s">
@@ -2289,21 +2315,21 @@
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-    </row>
-    <row r="27" spans="1:24" ht="8.25" customHeight="1">
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+    </row>
+    <row r="27" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2332,37 +2358,37 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24" ht="21.75" customHeight="1">
+    <row r="28" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="11" t="s">
         <v>47</v>
@@ -2390,20 +2416,20 @@
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="42"/>
       <c r="G30" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="43"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -2413,7 +2439,7 @@
       <c r="O30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="43"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
@@ -2421,33 +2447,33 @@
       <c r="W30" s="44"/>
       <c r="X30" s="44"/>
     </row>
-    <row r="31" spans="1:24" ht="36" customHeight="1">
+    <row r="31" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
@@ -2475,7 +2501,7 @@
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
     </row>
-    <row r="33" spans="1:24" ht="8.25" customHeight="1">
+    <row r="33" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2502,7 +2528,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -2510,7 +2536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
@@ -2527,7 +2553,7 @@
       <c r="W35" s="42"/>
       <c r="X35" s="42"/>
     </row>
-    <row r="36" spans="1:24" ht="8.25" customHeight="1">
+    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2554,7 +2580,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>62</v>
@@ -2583,7 +2609,7 @@
       <c r="W37" s="42"/>
       <c r="X37" s="42"/>
     </row>
-    <row r="38" spans="1:24" ht="20.25" customHeight="1">
+    <row r="38" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>64</v>
@@ -2613,7 +2639,7 @@
       <c r="W38" s="47"/>
       <c r="X38" s="47"/>
     </row>
-    <row r="39" spans="1:24" ht="8.25" customHeight="1">
+    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2641,7 +2667,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" ht="11.25">
+    <row r="40" spans="1:24" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2688,7 @@
       <c r="U40" s="41"/>
       <c r="V40" s="41"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>71</v>
       </c>
@@ -2681,12 +2707,12 @@
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C42" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
@@ -2694,7 +2720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2737,7 @@
       <c r="W44" s="42"/>
       <c r="X44" s="42"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2738,7 +2764,7 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>62</v>
@@ -2767,7 +2793,7 @@
       <c r="W46" s="42"/>
       <c r="X46" s="42"/>
     </row>
-    <row r="47" spans="1:24" ht="21.75" customHeight="1">
+    <row r="47" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>64</v>
@@ -2775,14 +2801,14 @@
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
       <c r="N47" s="15" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2823,7 @@
       <c r="W47" s="49"/>
       <c r="X47" s="49"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2825,7 +2851,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>68</v>
@@ -2857,7 +2883,7 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
     </row>
-    <row r="50" spans="1:24" s="19" customFormat="1" ht="12.75" customHeight="1">
+    <row r="50" spans="1:24" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>74</v>
       </c>
@@ -2865,7 +2891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="12" customHeight="1">
+    <row r="51" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
@@ -2881,7 +2907,7 @@
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
     </row>
-    <row r="52" spans="1:24" ht="12" customHeight="1">
+    <row r="52" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
@@ -2902,84 +2928,84 @@
       <c r="S52" s="42"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:24" ht="14.25" customHeight="1">
+    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E53" s="22"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
-      <c r="W53" s="66"/>
-      <c r="X53" s="66"/>
-    </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1">
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+    </row>
+    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="22"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-    </row>
-    <row r="55" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+    </row>
+    <row r="55" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -3009,7 +3035,7 @@
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="8.25" customHeight="1">
+    <row r="57" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3037,7 +3063,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>85</v>
       </c>
@@ -3067,7 +3093,7 @@
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="12" customHeight="1">
+    <row r="59" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24" t="s">
         <v>87</v>
@@ -3101,7 +3127,7 @@
       <c r="W59" s="24"/>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="12" customHeight="1">
+    <row r="60" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24"/>
       <c r="B60" s="24" t="s">
         <v>90</v>
@@ -3129,37 +3155,37 @@
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
     </row>
-    <row r="61" spans="1:24" ht="20.25" customHeight="1">
+    <row r="61" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
-      <c r="W61" s="62"/>
-      <c r="X61" s="62"/>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>93</v>
       </c>
@@ -3180,43 +3206,43 @@
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:24" ht="21.75" customHeight="1">
+    <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="64"/>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="58"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -3242,7 +3268,7 @@
       <c r="W66" s="51"/>
       <c r="X66" s="51"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>98</v>
       </c>
@@ -3272,33 +3298,33 @@
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
     </row>
-    <row r="68" spans="1:24" ht="24.75" customHeight="1">
+    <row r="68" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="60"/>
-      <c r="U68" s="60"/>
-      <c r="V68" s="60"/>
-      <c r="W68" s="60"/>
-      <c r="X68" s="60"/>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="66"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -3328,7 +3354,7 @@
       <c r="W69" s="28"/>
       <c r="X69" s="28"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>100</v>
       </c>
@@ -3358,7 +3384,7 @@
       <c r="W70" s="51"/>
       <c r="X70" s="51"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
@@ -3388,7 +3414,7 @@
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>104</v>
       </c>
@@ -3421,7 +3447,7 @@
       <c r="W72" s="28"/>
       <c r="X72" s="28"/>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>108</v>
       </c>
@@ -3432,7 +3458,7 @@
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="51"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51"/>
@@ -3451,7 +3477,7 @@
       <c r="W73" s="28"/>
       <c r="X73" s="28"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>110</v>
       </c>
@@ -3481,7 +3507,7 @@
       <c r="W74" s="28"/>
       <c r="X74" s="28"/>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
       <c r="B75" s="28" t="s">
         <v>112</v>
@@ -3510,7 +3536,7 @@
       <c r="W75" s="28"/>
       <c r="X75" s="28"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
       <c r="B76" s="28" t="s">
         <v>114</v>
@@ -3539,21 +3565,21 @@
       <c r="W76" s="32"/>
       <c r="X76" s="28"/>
     </row>
-    <row r="77" spans="1:24" ht="24" customHeight="1">
+    <row r="77" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28"/>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
       <c r="O77" s="29" t="s">
@@ -3569,7 +3595,7 @@
       <c r="W77" s="28"/>
       <c r="X77" s="28"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -3595,7 +3621,7 @@
       <c r="W78" s="28"/>
       <c r="X78" s="28"/>
     </row>
-    <row r="79" spans="1:24" ht="14.25">
+    <row r="79" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3649,7 @@
       <c r="W79" s="57"/>
       <c r="X79" s="57"/>
     </row>
-    <row r="80" spans="1:24" ht="11.25" customHeight="1">
+    <row r="80" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>118</v>
       </c>
@@ -3657,7 +3683,7 @@
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
     </row>
-    <row r="81" spans="1:25" ht="8.25" customHeight="1">
+    <row r="81" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
@@ -3683,7 +3709,7 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="11.25" customHeight="1">
+    <row r="82" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>122</v>
       </c>
@@ -3706,7 +3732,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:25" ht="8.25" customHeight="1">
+    <row r="83" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
         <v>19</v>
@@ -3728,7 +3754,7 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="11.25" customHeight="1">
+    <row r="84" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>123</v>
       </c>
@@ -3765,7 +3791,7 @@
       <c r="W84" s="28"/>
       <c r="X84" s="28"/>
     </row>
-    <row r="85" spans="1:25" ht="8.25" customHeight="1">
+    <row r="85" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
         <v>20</v>
@@ -3793,7 +3819,7 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="11.25" customHeight="1">
+    <row r="86" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>125</v>
       </c>
@@ -3821,7 +3847,7 @@
       <c r="W86" s="42"/>
       <c r="X86" s="42"/>
     </row>
-    <row r="87" spans="1:25" ht="8.25" customHeight="1">
+    <row r="87" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3848,22 +3874,22 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="11.25" customHeight="1">
+    <row r="88" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="B88" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
       <c r="L88" s="28"/>
       <c r="M88" s="28"/>
       <c r="N88" s="28" t="s">
@@ -3882,18 +3908,18 @@
       <c r="W88" s="28"/>
       <c r="X88" s="28"/>
     </row>
-    <row r="89" spans="1:25" ht="11.25" customHeight="1">
+    <row r="89" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="28"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
       <c r="L89" s="28"/>
       <c r="M89" s="28"/>
       <c r="N89" s="28" t="s">
@@ -3912,37 +3938,37 @@
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
     </row>
-    <row r="90" spans="1:25" ht="33" customHeight="1">
+    <row r="90" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="58"/>
-      <c r="P90" s="58"/>
-      <c r="Q90" s="58"/>
-      <c r="R90" s="58"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
-      <c r="W90" s="59"/>
-      <c r="X90" s="59"/>
-    </row>
-    <row r="91" spans="1:25" ht="12" customHeight="1">
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="64"/>
+      <c r="R90" s="64"/>
+      <c r="S90" s="65"/>
+      <c r="T90" s="65"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="65"/>
+      <c r="W90" s="65"/>
+      <c r="X90" s="65"/>
+    </row>
+    <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>136</v>
       </c>
@@ -3973,33 +3999,33 @@
       <c r="W91" s="42"/>
       <c r="X91" s="42"/>
     </row>
-    <row r="92" spans="1:25" ht="30.75" customHeight="1">
+    <row r="92" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="56"/>
-      <c r="X92" s="56"/>
-    </row>
-    <row r="93" spans="1:25" ht="11.25" customHeight="1">
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="61"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="61"/>
+      <c r="R92" s="61"/>
+      <c r="S92" s="61"/>
+      <c r="T92" s="61"/>
+      <c r="U92" s="61"/>
+      <c r="V92" s="61"/>
+      <c r="W92" s="61"/>
+      <c r="X92" s="61"/>
+    </row>
+    <row r="93" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>138</v>
       </c>
@@ -4029,7 +4055,7 @@
       <c r="W93" s="28"/>
       <c r="X93" s="28"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="28"/>
       <c r="B94" s="13" t="s">
         <v>49</v>
@@ -4060,7 +4086,7 @@
       <c r="W94" s="17"/>
       <c r="X94" s="17"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>141</v>
       </c>
@@ -4091,7 +4117,7 @@
       <c r="X95" s="51"/>
       <c r="Y95" s="17"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>140</v>
       </c>
@@ -4121,7 +4147,7 @@
       <c r="W96" s="51"/>
       <c r="X96" s="51"/>
     </row>
-    <row r="97" spans="1:24" ht="11.25" customHeight="1">
+    <row r="97" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>143</v>
       </c>
@@ -4129,7 +4155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +4172,7 @@
       <c r="W98" s="42"/>
       <c r="X98" s="42"/>
     </row>
-    <row r="99" spans="1:24" ht="8.25" customHeight="1">
+    <row r="99" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4172,7 +4198,7 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
         <v>62</v>
@@ -4201,7 +4227,7 @@
       <c r="W100" s="42"/>
       <c r="X100" s="42"/>
     </row>
-    <row r="101" spans="1:24" ht="21.75" customHeight="1">
+    <row r="101" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
         <v>64</v>
@@ -4209,14 +4235,14 @@
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="21"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="56"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
       <c r="N101" s="15" t="s">
         <v>65</v>
       </c>
@@ -4231,7 +4257,7 @@
       <c r="W101" s="49"/>
       <c r="X101" s="49"/>
     </row>
-    <row r="102" spans="1:24" ht="8.25" customHeight="1">
+    <row r="102" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4259,7 +4285,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
         <v>68</v>
@@ -4291,7 +4317,7 @@
       <c r="W103" s="13"/>
       <c r="X103" s="13"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
         <v>71</v>
       </c>
@@ -4310,12 +4336,12 @@
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C105" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="11.25" customHeight="1">
+    <row r="106" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>146</v>
       </c>
@@ -4323,7 +4349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>59</v>
       </c>
@@ -4340,7 +4366,7 @@
       <c r="W107" s="42"/>
       <c r="X107" s="42"/>
     </row>
-    <row r="108" spans="1:24" ht="8.25" customHeight="1">
+    <row r="108" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4366,7 +4392,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="13" t="s">
         <v>62</v>
@@ -4395,7 +4421,7 @@
       <c r="W109" s="42"/>
       <c r="X109" s="42"/>
     </row>
-    <row r="110" spans="1:24" ht="21.75" customHeight="1">
+    <row r="110" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
         <v>64</v>
@@ -4403,14 +4429,14 @@
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="21"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
       <c r="N110" s="15" t="s">
         <v>65</v>
       </c>
@@ -4425,7 +4451,7 @@
       <c r="W110" s="49"/>
       <c r="X110" s="49"/>
     </row>
-    <row r="111" spans="1:24" ht="8.25" customHeight="1">
+    <row r="111" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4453,7 +4479,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="13" t="s">
         <v>68</v>
@@ -4485,7 +4511,7 @@
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>148</v>
       </c>
@@ -4518,7 +4544,7 @@
       <c r="W113" s="28"/>
       <c r="X113" s="28"/>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>149</v>
       </c>
@@ -4529,7 +4555,7 @@
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
-      <c r="G114" s="51"/>
+      <c r="G114" s="75"/>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
       <c r="J114" s="51"/>
@@ -4548,7 +4574,7 @@
       <c r="W114" s="28"/>
       <c r="X114" s="28"/>
     </row>
-    <row r="115" spans="1:24" ht="11.25" customHeight="1">
+    <row r="115" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="57" t="s">
         <v>150</v>
       </c>
@@ -4576,7 +4602,7 @@
       <c r="W115" s="57"/>
       <c r="X115" s="57"/>
     </row>
-    <row r="116" spans="1:24" ht="9" customHeight="1">
+    <row r="116" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="51"/>
       <c r="B116" s="51"/>
       <c r="C116" s="51"/>
@@ -4606,7 +4632,7 @@
       <c r="W116" s="28"/>
       <c r="X116" s="28"/>
     </row>
-    <row r="117" spans="1:24" ht="10.5" customHeight="1">
+    <row r="117" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>153</v>
       </c>
@@ -4635,7 +4661,7 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="28" t="s">
         <v>154</v>
       </c>
@@ -4663,7 +4689,7 @@
       <c r="W118" s="28"/>
       <c r="X118" s="28"/>
     </row>
-    <row r="119" spans="1:24" ht="8.25" customHeight="1">
+    <row r="119" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -4691,7 +4717,7 @@
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
     </row>
-    <row r="120" spans="1:24" ht="9.75" customHeight="1">
+    <row r="120" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -4718,35 +4744,35 @@
       <c r="W120" s="28"/>
       <c r="X120" s="28"/>
     </row>
-    <row r="121" spans="1:24" ht="36" customHeight="1">
+    <row r="121" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="28"/>
-      <c r="B121" s="55" t="s">
+      <c r="B121" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="55"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="55"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="55"/>
-      <c r="S121" s="55"/>
-      <c r="T121" s="55"/>
-      <c r="U121" s="55"/>
-      <c r="V121" s="55"/>
-      <c r="W121" s="55"/>
-      <c r="X121" s="55"/>
-    </row>
-    <row r="122" spans="1:24" ht="9" customHeight="1">
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="68"/>
+      <c r="K121" s="68"/>
+      <c r="L121" s="68"/>
+      <c r="M121" s="68"/>
+      <c r="N121" s="68"/>
+      <c r="O121" s="68"/>
+      <c r="P121" s="68"/>
+      <c r="Q121" s="68"/>
+      <c r="R121" s="68"/>
+      <c r="S121" s="68"/>
+      <c r="T121" s="68"/>
+      <c r="U121" s="68"/>
+      <c r="V121" s="68"/>
+      <c r="W121" s="68"/>
+      <c r="X121" s="68"/>
+    </row>
+    <row r="122" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="28"/>
       <c r="B122" s="51"/>
       <c r="C122" s="51"/>
@@ -4772,7 +4798,7 @@
       <c r="W122" s="28"/>
       <c r="X122" s="28"/>
     </row>
-    <row r="123" spans="1:24" ht="10.5" customHeight="1">
+    <row r="123" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="30"/>
       <c r="B123" s="5" t="s">
         <v>153</v>
@@ -4801,35 +4827,35 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24" ht="25.5" customHeight="1">
+    <row r="124" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="55"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="55"/>
-      <c r="R124" s="55"/>
-      <c r="S124" s="55"/>
-      <c r="T124" s="55"/>
-      <c r="U124" s="55"/>
-      <c r="V124" s="55"/>
-      <c r="W124" s="55"/>
-      <c r="X124" s="55"/>
-    </row>
-    <row r="125" spans="1:24" ht="8.25" customHeight="1">
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="68"/>
+      <c r="O124" s="68"/>
+      <c r="P124" s="68"/>
+      <c r="Q124" s="68"/>
+      <c r="R124" s="68"/>
+      <c r="S124" s="68"/>
+      <c r="T124" s="68"/>
+      <c r="U124" s="68"/>
+      <c r="V124" s="68"/>
+      <c r="W124" s="68"/>
+      <c r="X124" s="68"/>
+    </row>
+    <row r="125" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
@@ -4855,7 +4881,7 @@
       <c r="W125" s="28"/>
       <c r="X125" s="28"/>
     </row>
-    <row r="126" spans="1:24" ht="13.5" customHeight="1">
+    <row r="126" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="52" t="s">
         <v>153</v>
@@ -4883,7 +4909,7 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
     </row>
-    <row r="127" spans="1:24" ht="8.1" customHeight="1">
+    <row r="127" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="53" t="s">
         <v>158</v>
       </c>
@@ -4905,7 +4931,7 @@
       <c r="W127" s="28"/>
       <c r="X127" s="28"/>
     </row>
-    <row r="128" spans="1:24" ht="8.1" customHeight="1">
+    <row r="128" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="31" t="s">
         <v>159</v>
       </c>
@@ -4926,7 +4952,7 @@
       <c r="W128" s="28"/>
       <c r="X128" s="28"/>
     </row>
-    <row r="129" spans="1:24" ht="8.1" customHeight="1">
+    <row r="129" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="31" t="s">
         <v>160</v>
       </c>
@@ -4947,7 +4973,7 @@
       <c r="W129" s="28"/>
       <c r="X129" s="28"/>
     </row>
-    <row r="130" spans="1:24" ht="8.1" customHeight="1">
+    <row r="130" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="31" t="s">
         <v>161</v>
       </c>
@@ -4968,7 +4994,7 @@
       <c r="W130" s="28"/>
       <c r="X130" s="28"/>
     </row>
-    <row r="131" spans="1:24" ht="8.1" customHeight="1">
+    <row r="131" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="31" t="s">
         <v>162</v>
       </c>
@@ -4990,7 +5016,7 @@
       <c r="W131" s="28"/>
       <c r="X131" s="28"/>
     </row>
-    <row r="132" spans="1:24" ht="8.1" customHeight="1">
+    <row r="132" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="31" t="s">
         <v>163</v>
       </c>
@@ -5017,7 +5043,7 @@
       <c r="W132" s="28"/>
       <c r="X132" s="28"/>
     </row>
-    <row r="133" spans="1:24" ht="8.1" customHeight="1">
+    <row r="133" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="31" t="s">
         <v>164</v>
       </c>
@@ -5041,7 +5067,7 @@
       <c r="W133" s="28"/>
       <c r="X133" s="28"/>
     </row>
-    <row r="134" spans="1:24" ht="8.85" customHeight="1">
+    <row r="134" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -5066,7 +5092,7 @@
       <c r="W134" s="28"/>
       <c r="X134" s="28"/>
     </row>
-    <row r="135" spans="1:24" ht="8.85" customHeight="1">
+    <row r="135" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -5091,7 +5117,7 @@
       <c r="W135" s="28"/>
       <c r="X135" s="28"/>
     </row>
-    <row r="136" spans="1:24" ht="8.85" customHeight="1">
+    <row r="136" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -5116,7 +5142,7 @@
       <c r="W136" s="28"/>
       <c r="X136" s="28"/>
     </row>
-    <row r="137" spans="1:24" ht="8.85" customHeight="1">
+    <row r="137" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -5141,7 +5167,7 @@
       <c r="W137" s="28"/>
       <c r="X137" s="28"/>
     </row>
-    <row r="138" spans="1:24" ht="8.85" customHeight="1">
+    <row r="138" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -5166,7 +5192,7 @@
       <c r="W138" s="28"/>
       <c r="X138" s="28"/>
     </row>
-    <row r="139" spans="1:24" ht="8.85" customHeight="1">
+    <row r="139" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -5191,7 +5217,7 @@
       <c r="W139" s="28"/>
       <c r="X139" s="28"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -5217,7 +5243,7 @@
       <c r="W140" s="28"/>
       <c r="X140" s="28"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -5243,7 +5269,7 @@
       <c r="W141" s="28"/>
       <c r="X141" s="28"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -5269,7 +5295,7 @@
       <c r="W142" s="28"/>
       <c r="X142" s="28"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -5295,7 +5321,7 @@
       <c r="W143" s="28"/>
       <c r="X143" s="28"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -5321,7 +5347,7 @@
       <c r="W144" s="28"/>
       <c r="X144" s="28"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -5347,7 +5373,7 @@
       <c r="W145" s="28"/>
       <c r="X145" s="28"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -5373,7 +5399,7 @@
       <c r="W146" s="28"/>
       <c r="X146" s="28"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -5399,7 +5425,7 @@
       <c r="W147" s="28"/>
       <c r="X147" s="28"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -5425,7 +5451,7 @@
       <c r="W148" s="28"/>
       <c r="X148" s="28"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -5451,7 +5477,7 @@
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -5477,7 +5503,7 @@
       <c r="W150" s="28"/>
       <c r="X150" s="28"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -5503,7 +5529,7 @@
       <c r="W151" s="28"/>
       <c r="X151" s="28"/>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -5529,7 +5555,7 @@
       <c r="W152" s="28"/>
       <c r="X152" s="28"/>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -5555,7 +5581,7 @@
       <c r="W153" s="28"/>
       <c r="X153" s="28"/>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -5581,7 +5607,7 @@
       <c r="W154" s="28"/>
       <c r="X154" s="28"/>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -5607,7 +5633,7 @@
       <c r="W155" s="28"/>
       <c r="X155" s="28"/>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -5633,7 +5659,7 @@
       <c r="W156" s="28"/>
       <c r="X156" s="28"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -5659,7 +5685,7 @@
       <c r="W157" s="28"/>
       <c r="X157" s="28"/>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -5685,7 +5711,7 @@
       <c r="W158" s="28"/>
       <c r="X158" s="28"/>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -5711,7 +5737,7 @@
       <c r="W159" s="28"/>
       <c r="X159" s="28"/>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -5737,7 +5763,7 @@
       <c r="W160" s="28"/>
       <c r="X160" s="28"/>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -5763,7 +5789,7 @@
       <c r="W161" s="28"/>
       <c r="X161" s="28"/>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -5789,7 +5815,7 @@
       <c r="W162" s="28"/>
       <c r="X162" s="28"/>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -5815,7 +5841,7 @@
       <c r="W163" s="28"/>
       <c r="X163" s="28"/>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -5841,7 +5867,7 @@
       <c r="W164" s="28"/>
       <c r="X164" s="28"/>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -5867,7 +5893,7 @@
       <c r="W165" s="28"/>
       <c r="X165" s="28"/>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -5893,7 +5919,7 @@
       <c r="W166" s="28"/>
       <c r="X166" s="28"/>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -5919,7 +5945,7 @@
       <c r="W167" s="28"/>
       <c r="X167" s="28"/>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -5945,7 +5971,7 @@
       <c r="W168" s="28"/>
       <c r="X168" s="28"/>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -5971,7 +5997,7 @@
       <c r="W169" s="28"/>
       <c r="X169" s="28"/>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -5997,7 +6023,7 @@
       <c r="W170" s="28"/>
       <c r="X170" s="28"/>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -6023,7 +6049,7 @@
       <c r="W171" s="28"/>
       <c r="X171" s="28"/>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -6049,7 +6075,7 @@
       <c r="W172" s="28"/>
       <c r="X172" s="28"/>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -6075,7 +6101,7 @@
       <c r="W173" s="28"/>
       <c r="X173" s="28"/>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -6101,7 +6127,7 @@
       <c r="W174" s="28"/>
       <c r="X174" s="28"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -6127,7 +6153,7 @@
       <c r="W175" s="28"/>
       <c r="X175" s="28"/>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -6153,7 +6179,7 @@
       <c r="W176" s="28"/>
       <c r="X176" s="28"/>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -6179,7 +6205,7 @@
       <c r="W177" s="28"/>
       <c r="X177" s="28"/>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -6205,7 +6231,7 @@
       <c r="W178" s="28"/>
       <c r="X178" s="28"/>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -6231,7 +6257,7 @@
       <c r="W179" s="28"/>
       <c r="X179" s="28"/>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -6257,7 +6283,7 @@
       <c r="W180" s="28"/>
       <c r="X180" s="28"/>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -6283,7 +6309,7 @@
       <c r="W181" s="28"/>
       <c r="X181" s="28"/>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -6309,7 +6335,7 @@
       <c r="W182" s="28"/>
       <c r="X182" s="28"/>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -6335,7 +6361,7 @@
       <c r="W183" s="28"/>
       <c r="X183" s="28"/>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -6361,7 +6387,7 @@
       <c r="W184" s="28"/>
       <c r="X184" s="28"/>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -6387,7 +6413,7 @@
       <c r="W185" s="28"/>
       <c r="X185" s="28"/>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -6413,7 +6439,7 @@
       <c r="W186" s="28"/>
       <c r="X186" s="28"/>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -6439,7 +6465,7 @@
       <c r="W187" s="28"/>
       <c r="X187" s="28"/>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -6465,7 +6491,7 @@
       <c r="W188" s="28"/>
       <c r="X188" s="28"/>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -6491,7 +6517,7 @@
       <c r="W189" s="28"/>
       <c r="X189" s="28"/>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -6517,7 +6543,7 @@
       <c r="W190" s="28"/>
       <c r="X190" s="28"/>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -6543,7 +6569,7 @@
       <c r="W191" s="28"/>
       <c r="X191" s="28"/>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -6569,7 +6595,7 @@
       <c r="W192" s="28"/>
       <c r="X192" s="28"/>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -6595,7 +6621,7 @@
       <c r="W193" s="28"/>
       <c r="X193" s="28"/>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -6621,7 +6647,7 @@
       <c r="W194" s="28"/>
       <c r="X194" s="28"/>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -6647,7 +6673,7 @@
       <c r="W195" s="28"/>
       <c r="X195" s="28"/>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -6673,7 +6699,7 @@
       <c r="W196" s="28"/>
       <c r="X196" s="28"/>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -6699,7 +6725,7 @@
       <c r="W197" s="28"/>
       <c r="X197" s="28"/>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -6725,7 +6751,7 @@
       <c r="W198" s="28"/>
       <c r="X198" s="28"/>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -6751,7 +6777,7 @@
       <c r="W199" s="28"/>
       <c r="X199" s="28"/>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -6777,7 +6803,7 @@
       <c r="W200" s="28"/>
       <c r="X200" s="28"/>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -6803,7 +6829,7 @@
       <c r="W201" s="28"/>
       <c r="X201" s="28"/>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -6829,7 +6855,7 @@
       <c r="W202" s="28"/>
       <c r="X202" s="28"/>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -6855,7 +6881,7 @@
       <c r="W203" s="28"/>
       <c r="X203" s="28"/>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -6881,7 +6907,7 @@
       <c r="W204" s="28"/>
       <c r="X204" s="28"/>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -6907,7 +6933,7 @@
       <c r="W205" s="28"/>
       <c r="X205" s="28"/>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -6933,7 +6959,7 @@
       <c r="W206" s="28"/>
       <c r="X206" s="28"/>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -6959,7 +6985,7 @@
       <c r="W207" s="28"/>
       <c r="X207" s="28"/>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -6985,7 +7011,7 @@
       <c r="W208" s="28"/>
       <c r="X208" s="28"/>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -7011,7 +7037,7 @@
       <c r="W209" s="28"/>
       <c r="X209" s="28"/>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -7037,7 +7063,7 @@
       <c r="W210" s="28"/>
       <c r="X210" s="28"/>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -7063,7 +7089,7 @@
       <c r="W211" s="28"/>
       <c r="X211" s="28"/>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -7089,7 +7115,7 @@
       <c r="W212" s="28"/>
       <c r="X212" s="28"/>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -7115,7 +7141,7 @@
       <c r="W213" s="28"/>
       <c r="X213" s="28"/>
     </row>
-    <row r="214" spans="1:24">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -7141,7 +7167,7 @@
       <c r="W214" s="28"/>
       <c r="X214" s="28"/>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -7167,7 +7193,7 @@
       <c r="W215" s="28"/>
       <c r="X215" s="28"/>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -7193,7 +7219,7 @@
       <c r="W216" s="28"/>
       <c r="X216" s="28"/>
     </row>
-    <row r="217" spans="1:24">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -7219,7 +7245,7 @@
       <c r="W217" s="28"/>
       <c r="X217" s="28"/>
     </row>
-    <row r="218" spans="1:24">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="28"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -7245,7 +7271,7 @@
       <c r="W218" s="28"/>
       <c r="X218" s="28"/>
     </row>
-    <row r="219" spans="1:24">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="28"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -7271,7 +7297,7 @@
       <c r="W219" s="28"/>
       <c r="X219" s="28"/>
     </row>
-    <row r="220" spans="1:24">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="28"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -7297,7 +7323,7 @@
       <c r="W220" s="28"/>
       <c r="X220" s="28"/>
     </row>
-    <row r="221" spans="1:24">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="28"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -7323,7 +7349,7 @@
       <c r="W221" s="28"/>
       <c r="X221" s="28"/>
     </row>
-    <row r="222" spans="1:24">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="28"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -7349,7 +7375,7 @@
       <c r="W222" s="28"/>
       <c r="X222" s="28"/>
     </row>
-    <row r="223" spans="1:24">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="28"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -7375,7 +7401,7 @@
       <c r="W223" s="28"/>
       <c r="X223" s="28"/>
     </row>
-    <row r="224" spans="1:24">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="28"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -7401,7 +7427,7 @@
       <c r="W224" s="28"/>
       <c r="X224" s="28"/>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="28"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -7427,7 +7453,7 @@
       <c r="W225" s="28"/>
       <c r="X225" s="28"/>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="28"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -7453,7 +7479,7 @@
       <c r="W226" s="28"/>
       <c r="X226" s="28"/>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="28"/>
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
@@ -7479,7 +7505,7 @@
       <c r="W227" s="28"/>
       <c r="X227" s="28"/>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="28"/>
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
@@ -7505,7 +7531,7 @@
       <c r="W228" s="28"/>
       <c r="X228" s="28"/>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="28"/>
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
@@ -7531,7 +7557,7 @@
       <c r="W229" s="28"/>
       <c r="X229" s="28"/>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="28"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -7557,7 +7583,7 @@
       <c r="W230" s="28"/>
       <c r="X230" s="28"/>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="28"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -7583,7 +7609,7 @@
       <c r="W231" s="28"/>
       <c r="X231" s="28"/>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="28"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -7609,7 +7635,7 @@
       <c r="W232" s="28"/>
       <c r="X232" s="28"/>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="28"/>
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
@@ -7635,7 +7661,7 @@
       <c r="W233" s="28"/>
       <c r="X233" s="28"/>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="28"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -7661,7 +7687,7 @@
       <c r="W234" s="28"/>
       <c r="X234" s="28"/>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="28"/>
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
@@ -7687,7 +7713,7 @@
       <c r="W235" s="28"/>
       <c r="X235" s="28"/>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="28"/>
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
@@ -7713,7 +7739,7 @@
       <c r="W236" s="28"/>
       <c r="X236" s="28"/>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="28"/>
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
@@ -7739,7 +7765,7 @@
       <c r="W237" s="28"/>
       <c r="X237" s="28"/>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="28"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -7765,7 +7791,7 @@
       <c r="W238" s="28"/>
       <c r="X238" s="28"/>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="28"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -7791,7 +7817,7 @@
       <c r="W239" s="28"/>
       <c r="X239" s="28"/>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="28"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -7817,7 +7843,7 @@
       <c r="W240" s="28"/>
       <c r="X240" s="28"/>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="28"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -7843,7 +7869,7 @@
       <c r="W241" s="28"/>
       <c r="X241" s="28"/>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="28"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -7869,7 +7895,7 @@
       <c r="W242" s="28"/>
       <c r="X242" s="28"/>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="28"/>
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
@@ -7895,7 +7921,7 @@
       <c r="W243" s="28"/>
       <c r="X243" s="28"/>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="28"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -7921,7 +7947,7 @@
       <c r="W244" s="28"/>
       <c r="X244" s="28"/>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="28"/>
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
@@ -7947,7 +7973,7 @@
       <c r="W245" s="28"/>
       <c r="X245" s="28"/>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="28"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -7973,7 +7999,7 @@
       <c r="W246" s="28"/>
       <c r="X246" s="28"/>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="28"/>
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
@@ -7999,7 +8025,7 @@
       <c r="W247" s="28"/>
       <c r="X247" s="28"/>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="28"/>
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
@@ -8025,7 +8051,7 @@
       <c r="W248" s="28"/>
       <c r="X248" s="28"/>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="28"/>
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
@@ -8051,7 +8077,7 @@
       <c r="W249" s="28"/>
       <c r="X249" s="28"/>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="28"/>
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
@@ -8077,7 +8103,7 @@
       <c r="W250" s="28"/>
       <c r="X250" s="28"/>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="28"/>
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
@@ -8103,7 +8129,7 @@
       <c r="W251" s="28"/>
       <c r="X251" s="28"/>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="28"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -8129,7 +8155,7 @@
       <c r="W252" s="28"/>
       <c r="X252" s="28"/>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="28"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -8155,7 +8181,7 @@
       <c r="W253" s="28"/>
       <c r="X253" s="28"/>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="28"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -8181,7 +8207,7 @@
       <c r="W254" s="28"/>
       <c r="X254" s="28"/>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="28"/>
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
@@ -8207,7 +8233,7 @@
       <c r="W255" s="28"/>
       <c r="X255" s="28"/>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="28"/>
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
@@ -8233,7 +8259,7 @@
       <c r="W256" s="28"/>
       <c r="X256" s="28"/>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="28"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -8259,7 +8285,7 @@
       <c r="W257" s="28"/>
       <c r="X257" s="28"/>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="28"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -8285,7 +8311,7 @@
       <c r="W258" s="28"/>
       <c r="X258" s="28"/>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="28"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -8311,7 +8337,7 @@
       <c r="W259" s="28"/>
       <c r="X259" s="28"/>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="28"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -8337,7 +8363,7 @@
       <c r="W260" s="28"/>
       <c r="X260" s="28"/>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="28"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -8363,7 +8389,7 @@
       <c r="W261" s="28"/>
       <c r="X261" s="28"/>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="28"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -8389,7 +8415,7 @@
       <c r="W262" s="28"/>
       <c r="X262" s="28"/>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="28"/>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -8415,7 +8441,7 @@
       <c r="W263" s="28"/>
       <c r="X263" s="28"/>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="28"/>
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
@@ -8441,7 +8467,7 @@
       <c r="W264" s="28"/>
       <c r="X264" s="28"/>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="28"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -8467,7 +8493,7 @@
       <c r="W265" s="28"/>
       <c r="X265" s="28"/>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="28"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -8493,7 +8519,7 @@
       <c r="W266" s="28"/>
       <c r="X266" s="28"/>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="28"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -8519,7 +8545,7 @@
       <c r="W267" s="28"/>
       <c r="X267" s="28"/>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="28"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -8545,7 +8571,7 @@
       <c r="W268" s="28"/>
       <c r="X268" s="28"/>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="28"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -8571,7 +8597,7 @@
       <c r="W269" s="28"/>
       <c r="X269" s="28"/>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="28"/>
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
@@ -8597,7 +8623,7 @@
       <c r="W270" s="28"/>
       <c r="X270" s="28"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="28"/>
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
@@ -8623,7 +8649,7 @@
       <c r="W271" s="28"/>
       <c r="X271" s="28"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="28"/>
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
@@ -8649,7 +8675,7 @@
       <c r="W272" s="28"/>
       <c r="X272" s="28"/>
     </row>
-    <row r="273" spans="1:24">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="28"/>
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
@@ -8675,7 +8701,7 @@
       <c r="W273" s="28"/>
       <c r="X273" s="28"/>
     </row>
-    <row r="274" spans="1:24">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="28"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -8701,7 +8727,7 @@
       <c r="W274" s="28"/>
       <c r="X274" s="28"/>
     </row>
-    <row r="275" spans="1:24">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="28"/>
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
@@ -8727,7 +8753,7 @@
       <c r="W275" s="28"/>
       <c r="X275" s="28"/>
     </row>
-    <row r="276" spans="1:24">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="28"/>
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
@@ -8753,7 +8779,7 @@
       <c r="W276" s="28"/>
       <c r="X276" s="28"/>
     </row>
-    <row r="277" spans="1:24">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="28"/>
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
@@ -8779,7 +8805,7 @@
       <c r="W277" s="28"/>
       <c r="X277" s="28"/>
     </row>
-    <row r="278" spans="1:24">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="28"/>
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
@@ -8805,7 +8831,7 @@
       <c r="W278" s="28"/>
       <c r="X278" s="28"/>
     </row>
-    <row r="279" spans="1:24">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="28"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -8831,7 +8857,7 @@
       <c r="W279" s="28"/>
       <c r="X279" s="28"/>
     </row>
-    <row r="280" spans="1:24">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="28"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -8857,7 +8883,7 @@
       <c r="W280" s="28"/>
       <c r="X280" s="28"/>
     </row>
-    <row r="281" spans="1:24">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="28"/>
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
@@ -8883,7 +8909,7 @@
       <c r="W281" s="28"/>
       <c r="X281" s="28"/>
     </row>
-    <row r="282" spans="1:24">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="28"/>
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
@@ -8909,7 +8935,7 @@
       <c r="W282" s="28"/>
       <c r="X282" s="28"/>
     </row>
-    <row r="283" spans="1:24">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="28"/>
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
@@ -8937,23 +8963,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="B65:X65"/>
-    <mergeCell ref="B55:X55"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="B61:X61"/>
-    <mergeCell ref="F53:X54"/>
-    <mergeCell ref="D31:X31"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="L26:X26"/>
+    <mergeCell ref="B124:X124"/>
+    <mergeCell ref="D92:X92"/>
+    <mergeCell ref="F101:M101"/>
+    <mergeCell ref="F110:M110"/>
+    <mergeCell ref="A115:X115"/>
+    <mergeCell ref="B121:X121"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="B68:X68"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="A79:X79"/>
+    <mergeCell ref="B88:K89"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="N20:X20"/>
     <mergeCell ref="F47:M47"/>
@@ -8964,18 +8985,23 @@
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="N23:X23"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="S90:X90"/>
-    <mergeCell ref="B68:X68"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="A79:X79"/>
-    <mergeCell ref="B88:K89"/>
-    <mergeCell ref="B124:X124"/>
-    <mergeCell ref="D92:X92"/>
-    <mergeCell ref="F101:M101"/>
-    <mergeCell ref="F110:M110"/>
-    <mergeCell ref="A115:X115"/>
-    <mergeCell ref="B121:X121"/>
+    <mergeCell ref="B65:X65"/>
+    <mergeCell ref="B55:X55"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="B61:X61"/>
+    <mergeCell ref="F53:X54"/>
+    <mergeCell ref="D31:X31"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="L26:X26"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="N18:X18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>

--- a/GenerateZaFoms/Template/ZaVkl.xlsx
+++ b/GenerateZaFoms/Template/ZaVkl.xlsx
@@ -1090,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,32 +1214,23 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1253,24 +1244,42 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1693,88 +1702,88 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
     </row>
     <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
@@ -1804,60 +1813,60 @@
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -1867,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -1879,7 +1888,7 @@
       <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="70"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
@@ -1930,7 +1939,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="71"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -2044,60 +2053,60 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="N17" s="55" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="N17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
     </row>
     <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="N18" s="55" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="N18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
@@ -2129,144 +2138,144 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="N20" s="55" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="N20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="N21" s="55" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="N21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="N22" s="55" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="N22" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="N23" s="55" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="N23" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
     </row>
     <row r="24" spans="1:24" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
@@ -2304,7 +2313,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="73"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="7" t="s">
@@ -2315,19 +2324,19 @@
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
     </row>
     <row r="27" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
@@ -2362,27 +2371,27 @@
       <c r="A28" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
@@ -2423,13 +2432,13 @@
       <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="42"/>
       <c r="G30" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="74"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -2439,7 +2448,7 @@
       <c r="O30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="74"/>
+      <c r="R30" s="58"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
@@ -2617,14 +2626,14 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="15" t="s">
         <v>65</v>
       </c>
@@ -2933,25 +2942,25 @@
         <v>79</v>
       </c>
       <c r="E53" s="22"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="22"/>
@@ -2976,34 +2985,34 @@
       <c r="X54" s="61"/>
     </row>
     <row r="55" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="24"/>
@@ -3156,34 +3165,34 @@
       <c r="X60" s="24"/>
     </row>
     <row r="61" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
@@ -3213,60 +3222,60 @@
       <c r="S64" s="17"/>
     </row>
     <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="58"/>
-      <c r="W65" s="58"/>
-      <c r="X65" s="58"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+    </row>
+    <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="78"/>
+      <c r="W66" s="78"/>
+      <c r="X66" s="78"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
@@ -3300,29 +3309,29 @@
     </row>
     <row r="68" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="65"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="65"/>
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
@@ -3458,7 +3467,7 @@
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="75"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51"/>
@@ -3567,19 +3576,19 @@
     </row>
     <row r="77" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28"/>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
       <c r="O77" s="29" t="s">
@@ -3622,32 +3631,32 @@
       <c r="X78" s="28"/>
     </row>
     <row r="79" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="57"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="57"/>
-      <c r="W79" s="57"/>
-      <c r="X79" s="57"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="62"/>
+      <c r="V79" s="62"/>
+      <c r="W79" s="62"/>
+      <c r="X79" s="62"/>
     </row>
     <row r="80" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
@@ -3878,18 +3887,18 @@
       <c r="A88" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
       <c r="L88" s="28"/>
       <c r="M88" s="28"/>
       <c r="N88" s="28" t="s">
@@ -3910,16 +3919,16 @@
     </row>
     <row r="89" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="28"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
       <c r="L89" s="28"/>
       <c r="M89" s="28"/>
       <c r="N89" s="28" t="s">
@@ -3942,31 +3951,31 @@
       <c r="A90" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="64"/>
-      <c r="P90" s="64"/>
-      <c r="Q90" s="64"/>
-      <c r="R90" s="64"/>
-      <c r="S90" s="65"/>
-      <c r="T90" s="65"/>
-      <c r="U90" s="65"/>
-      <c r="V90" s="65"/>
-      <c r="W90" s="65"/>
-      <c r="X90" s="65"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
+      <c r="O90" s="63"/>
+      <c r="P90" s="63"/>
+      <c r="Q90" s="63"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="64"/>
+      <c r="T90" s="64"/>
+      <c r="U90" s="64"/>
+      <c r="V90" s="64"/>
+      <c r="W90" s="64"/>
+      <c r="X90" s="64"/>
     </row>
     <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
@@ -4555,7 +4564,7 @@
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
-      <c r="G114" s="75"/>
+      <c r="G114" s="59"/>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
       <c r="J114" s="51"/>
@@ -4575,32 +4584,32 @@
       <c r="X114" s="28"/>
     </row>
     <row r="115" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="57" t="s">
+      <c r="A115" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="57"/>
-      <c r="M115" s="57"/>
-      <c r="N115" s="57"/>
-      <c r="O115" s="57"/>
-      <c r="P115" s="57"/>
-      <c r="Q115" s="57"/>
-      <c r="R115" s="57"/>
-      <c r="S115" s="57"/>
-      <c r="T115" s="57"/>
-      <c r="U115" s="57"/>
-      <c r="V115" s="57"/>
-      <c r="W115" s="57"/>
-      <c r="X115" s="57"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
+      <c r="O115" s="62"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="62"/>
+      <c r="S115" s="62"/>
+      <c r="T115" s="62"/>
+      <c r="U115" s="62"/>
+      <c r="V115" s="62"/>
+      <c r="W115" s="62"/>
+      <c r="X115" s="62"/>
     </row>
     <row r="116" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="51"/>
@@ -4746,31 +4755,31 @@
     </row>
     <row r="121" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="28"/>
-      <c r="B121" s="68" t="s">
+      <c r="B121" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="68"/>
-      <c r="I121" s="68"/>
-      <c r="J121" s="68"/>
-      <c r="K121" s="68"/>
-      <c r="L121" s="68"/>
-      <c r="M121" s="68"/>
-      <c r="N121" s="68"/>
-      <c r="O121" s="68"/>
-      <c r="P121" s="68"/>
-      <c r="Q121" s="68"/>
-      <c r="R121" s="68"/>
-      <c r="S121" s="68"/>
-      <c r="T121" s="68"/>
-      <c r="U121" s="68"/>
-      <c r="V121" s="68"/>
-      <c r="W121" s="68"/>
-      <c r="X121" s="68"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="60"/>
+      <c r="P121" s="60"/>
+      <c r="Q121" s="60"/>
+      <c r="R121" s="60"/>
+      <c r="S121" s="60"/>
+      <c r="T121" s="60"/>
+      <c r="U121" s="60"/>
+      <c r="V121" s="60"/>
+      <c r="W121" s="60"/>
+      <c r="X121" s="60"/>
     </row>
     <row r="122" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="28"/>
@@ -4829,31 +4838,31 @@
     </row>
     <row r="124" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
-      <c r="B124" s="68" t="s">
+      <c r="B124" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="68"/>
-      <c r="M124" s="68"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="68"/>
-      <c r="P124" s="68"/>
-      <c r="Q124" s="68"/>
-      <c r="R124" s="68"/>
-      <c r="S124" s="68"/>
-      <c r="T124" s="68"/>
-      <c r="U124" s="68"/>
-      <c r="V124" s="68"/>
-      <c r="W124" s="68"/>
-      <c r="X124" s="68"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="60"/>
+      <c r="N124" s="60"/>
+      <c r="O124" s="60"/>
+      <c r="P124" s="60"/>
+      <c r="Q124" s="60"/>
+      <c r="R124" s="60"/>
+      <c r="S124" s="60"/>
+      <c r="T124" s="60"/>
+      <c r="U124" s="60"/>
+      <c r="V124" s="60"/>
+      <c r="W124" s="60"/>
+      <c r="X124" s="60"/>
     </row>
     <row r="125" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
@@ -8962,19 +8971,25 @@
       <c r="X283" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B124:X124"/>
-    <mergeCell ref="D92:X92"/>
-    <mergeCell ref="F101:M101"/>
-    <mergeCell ref="F110:M110"/>
-    <mergeCell ref="A115:X115"/>
-    <mergeCell ref="B121:X121"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="S90:X90"/>
-    <mergeCell ref="B68:X68"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="A79:X79"/>
-    <mergeCell ref="B88:K89"/>
+  <mergeCells count="40">
+    <mergeCell ref="B66:X66"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="B65:X65"/>
+    <mergeCell ref="B55:X55"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="B61:X61"/>
+    <mergeCell ref="F53:X54"/>
+    <mergeCell ref="D31:X31"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="L26:X26"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="N20:X20"/>
     <mergeCell ref="F47:M47"/>
@@ -8985,23 +9000,18 @@
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="N23:X23"/>
-    <mergeCell ref="B65:X65"/>
-    <mergeCell ref="B55:X55"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="B61:X61"/>
-    <mergeCell ref="F53:X54"/>
-    <mergeCell ref="D31:X31"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="L26:X26"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="B68:X68"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="A79:X79"/>
+    <mergeCell ref="B88:K89"/>
+    <mergeCell ref="B124:X124"/>
+    <mergeCell ref="D92:X92"/>
+    <mergeCell ref="F101:M101"/>
+    <mergeCell ref="F110:M110"/>
+    <mergeCell ref="A115:X115"/>
+    <mergeCell ref="B121:X121"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>

--- a/GenerateZaFoms/Template/ZaVkl.xlsx
+++ b/GenerateZaFoms/Template/ZaVkl.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClientOms\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -920,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1040,6 +1045,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1090,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1169,9 +1181,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1223,14 +1232,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1244,41 +1292,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,6 +1307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1337,7 +1358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1372,7 +1393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,17 +1604,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="4.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="16" customWidth="1"/>
-    <col min="8" max="24" width="4.42578125" style="16" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="6" width="4.453125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="3.453125" style="16" customWidth="1"/>
+    <col min="8" max="24" width="4.453125" style="16" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1602,25 +1625,25 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-    </row>
-    <row r="2" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="40"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+    </row>
+    <row r="2" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1647,7 +1670,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1659,22 +1682,22 @@
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-    </row>
-    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+    </row>
+    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1701,91 +1724,91 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:24" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-    </row>
-    <row r="6" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+    </row>
+    <row r="6" spans="1:24" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-    </row>
-    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+    </row>
+    <row r="7" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-    </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+    </row>
+    <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1812,63 +1835,63 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:24" ht="9.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -1888,7 +1911,7 @@
       <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="55"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
@@ -1902,7 +1925,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
@@ -1929,7 +1952,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1939,12 +1962,12 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="N13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1987,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -1993,7 +2016,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2046,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2052,63 +2075,63 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="N17" s="67" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="N17" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-    </row>
-    <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="67" t="s">
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+    </row>
+    <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="N18" s="67" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="N18" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-    </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+    </row>
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -2137,147 +2160,147 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="67" t="s">
+    <row r="20" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="N20" s="67" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="N20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="67" t="s">
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="N21" s="67" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="N21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="67" t="s">
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="N22" s="67" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="N22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="N23" s="67" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="N23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-    </row>
-    <row r="24" spans="1:24" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-    </row>
-    <row r="25" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+    </row>
+    <row r="25" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2294,17 +2317,17 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="40" t="s">
+      <c r="R25" s="37"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X25" s="39"/>
+    </row>
+    <row r="26" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -2313,9 +2336,9 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="7" t="s">
         <v>42</v>
       </c>
@@ -2324,21 +2347,21 @@
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-    </row>
-    <row r="27" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+    </row>
+    <row r="27" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2367,37 +2390,37 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="11" t="s">
         <v>47</v>
@@ -2407,110 +2430,110 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="41"/>
       <c r="G30" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
       <c r="N30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="58"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-    </row>
-    <row r="31" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="57"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+    </row>
+    <row r="31" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-    </row>
-    <row r="33" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+    </row>
+    <row r="33" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2537,7 +2560,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -2545,24 +2568,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-    </row>
-    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="44"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+    </row>
+    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2589,36 +2612,36 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O37" s="17"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-    </row>
-    <row r="38" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+    </row>
+    <row r="38" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>64</v>
@@ -2626,29 +2649,29 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
       <c r="N38" s="15" t="s">
         <v>65</v>
       </c>
       <c r="O38" s="20"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-    </row>
-    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+    </row>
+    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2676,52 +2699,52 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="13" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
       <c r="Q40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
@@ -2729,24 +2752,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P44" s="44"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2773,36 +2796,36 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
       <c r="N46" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O46" s="17"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-    </row>
-    <row r="47" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="40"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+    </row>
+    <row r="47" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>64</v>
@@ -2810,29 +2833,29 @@
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
       <c r="N47" s="15" t="s">
         <v>65</v>
       </c>
       <c r="O47" s="20"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P47" s="47"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2860,7 +2883,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>68</v>
@@ -2868,31 +2891,31 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
       <c r="J49" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
       <c r="Q49" s="11" t="s">
         <v>70</v>
       </c>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
     </row>
-    <row r="50" spans="1:24" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>74</v>
       </c>
@@ -2900,151 +2923,151 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-    </row>
-    <row r="52" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+    </row>
+    <row r="52" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
       <c r="K52" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M52" s="41"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E53" s="22"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-    </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+    </row>
+    <row r="54" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="22"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-    </row>
-    <row r="55" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="77" t="s">
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+    </row>
+    <row r="55" spans="1:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
       <c r="L56" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
       <c r="T56" s="24"/>
       <c r="U56" s="24"/>
       <c r="V56" s="24"/>
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3072,7 +3095,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="9.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
         <v>85</v>
       </c>
@@ -3102,41 +3125,41 @@
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="26"/>
       <c r="H59" s="24" t="s">
         <v>88</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
       <c r="O59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
       <c r="S59" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
       <c r="W59" s="24"/>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="24" t="s">
         <v>90</v>
@@ -3146,138 +3169,138 @@
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
     </row>
-    <row r="61" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="77" t="s">
+    <row r="61" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
       <c r="K62" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="12.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="77" t="s">
+    <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="69"/>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-    </row>
-    <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+    </row>
+    <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78"/>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>98</v>
       </c>
@@ -3307,33 +3330,33 @@
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
     </row>
-    <row r="68" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="65"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="65"/>
-      <c r="X68" s="65"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="77"/>
+      <c r="W68" s="77"/>
+      <c r="X68" s="77"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -3351,19 +3374,19 @@
       <c r="O69" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
       <c r="S69" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
       <c r="W69" s="28"/>
       <c r="X69" s="28"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>100</v>
       </c>
@@ -3381,19 +3404,19 @@
       <c r="K70" s="28"/>
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="51"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="51"/>
-      <c r="U70" s="51"/>
-      <c r="V70" s="51"/>
-      <c r="W70" s="51"/>
-      <c r="X70" s="51"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
@@ -3423,7 +3446,7 @@
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>104</v>
       </c>
@@ -3434,29 +3457,29 @@
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
       <c r="Q72" s="28" t="s">
         <v>107</v>
       </c>
       <c r="R72" s="28"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
       <c r="W72" s="28"/>
       <c r="X72" s="28"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>108</v>
       </c>
@@ -3467,26 +3490,26 @@
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="51"/>
-      <c r="T73" s="51"/>
-      <c r="U73" s="51"/>
-      <c r="V73" s="51"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
       <c r="W73" s="28"/>
       <c r="X73" s="28"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
         <v>110</v>
       </c>
@@ -3516,7 +3539,7 @@
       <c r="W74" s="28"/>
       <c r="X74" s="28"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="28" t="s">
         <v>112</v>
@@ -3545,7 +3568,7 @@
       <c r="W75" s="28"/>
       <c r="X75" s="28"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="28" t="s">
         <v>114</v>
@@ -3574,21 +3597,21 @@
       <c r="W76" s="32"/>
       <c r="X76" s="28"/>
     </row>
-    <row r="77" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
       <c r="O77" s="29" t="s">
@@ -3604,7 +3627,7 @@
       <c r="W77" s="28"/>
       <c r="X77" s="28"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -3619,46 +3642,46 @@
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
       <c r="N78" s="28"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
       <c r="W78" s="28"/>
       <c r="X78" s="28"/>
     </row>
-    <row r="79" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="62" t="s">
+    <row r="79" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="62"/>
-      <c r="S79" s="62"/>
-      <c r="T79" s="62"/>
-      <c r="U79" s="62"/>
-      <c r="V79" s="62"/>
-      <c r="W79" s="62"/>
-      <c r="X79" s="62"/>
-    </row>
-    <row r="80" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
+      <c r="W79" s="63"/>
+      <c r="X79" s="63"/>
+    </row>
+    <row r="80" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>118</v>
       </c>
@@ -3692,7 +3715,7 @@
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
     </row>
-    <row r="81" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
@@ -3718,7 +3741,7 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>122</v>
       </c>
@@ -3728,12 +3751,12 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
@@ -3741,7 +3764,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
         <v>19</v>
@@ -3763,7 +3786,7 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>123</v>
       </c>
@@ -3788,9 +3811,9 @@
       </c>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
       <c r="Q84" s="28"/>
       <c r="R84" s="28"/>
       <c r="S84" s="28"/>
@@ -3800,7 +3823,7 @@
       <c r="W84" s="28"/>
       <c r="X84" s="28"/>
     </row>
-    <row r="85" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
         <v>20</v>
@@ -3828,35 +3851,35 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="42"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="42"/>
-    </row>
-    <row r="87" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="40"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+    </row>
+    <row r="87" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3883,22 +3906,22 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="78"/>
       <c r="L88" s="28"/>
       <c r="M88" s="28"/>
       <c r="N88" s="28" t="s">
@@ -3917,18 +3940,18 @@
       <c r="W88" s="28"/>
       <c r="X88" s="28"/>
     </row>
-    <row r="89" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
       <c r="L89" s="28"/>
       <c r="M89" s="28"/>
       <c r="N89" s="28" t="s">
@@ -3947,94 +3970,94 @@
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
     </row>
-    <row r="90" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="64"/>
-      <c r="T90" s="64"/>
-      <c r="U90" s="64"/>
-      <c r="V90" s="64"/>
-      <c r="W90" s="64"/>
-      <c r="X90" s="64"/>
-    </row>
-    <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+      <c r="Q90" s="75"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="76"/>
+      <c r="T90" s="76"/>
+      <c r="U90" s="76"/>
+      <c r="V90" s="76"/>
+      <c r="W90" s="76"/>
+      <c r="X90" s="76"/>
+    </row>
+    <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="41"/>
       <c r="G91" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H91" s="13"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
       <c r="N91" s="7" t="s">
         <v>137</v>
       </c>
       <c r="O91" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R91" s="41"/>
-      <c r="S91" s="42"/>
-      <c r="T91" s="42"/>
-      <c r="U91" s="42"/>
-      <c r="V91" s="42"/>
-      <c r="W91" s="42"/>
-      <c r="X91" s="42"/>
-    </row>
-    <row r="92" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R91" s="40"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+    </row>
+    <row r="92" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="61"/>
-      <c r="P92" s="61"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="61"/>
-      <c r="S92" s="61"/>
-      <c r="T92" s="61"/>
-      <c r="U92" s="61"/>
-      <c r="V92" s="61"/>
-      <c r="W92" s="61"/>
-      <c r="X92" s="61"/>
-    </row>
-    <row r="93" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="70"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="70"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+      <c r="W92" s="70"/>
+      <c r="X92" s="70"/>
+    </row>
+    <row r="93" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>138</v>
       </c>
@@ -4064,29 +4087,29 @@
       <c r="W93" s="28"/>
       <c r="X93" s="28"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
       <c r="G94" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H94" s="13"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
       <c r="N94" s="13" t="s">
         <v>52</v>
       </c>
       <c r="O94" s="7"/>
       <c r="P94" s="17"/>
-      <c r="Q94" s="41"/>
-      <c r="R94" s="41"/>
-      <c r="S94" s="42"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="41"/>
       <c r="T94" s="13" t="s">
         <v>44</v>
       </c>
@@ -4095,7 +4118,7 @@
       <c r="W94" s="17"/>
       <c r="X94" s="17"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>141</v>
       </c>
@@ -4114,19 +4137,19 @@
       <c r="L95" s="28"/>
       <c r="M95" s="28"/>
       <c r="N95" s="32"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="51"/>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="51"/>
-      <c r="V95" s="51"/>
-      <c r="W95" s="51"/>
-      <c r="X95" s="51"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="50"/>
       <c r="Y95" s="17"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
         <v>140</v>
       </c>
@@ -4143,20 +4166,20 @@
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
       <c r="L96" s="32"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="51"/>
-      <c r="P96" s="51"/>
-      <c r="Q96" s="51"/>
-      <c r="R96" s="51"/>
-      <c r="S96" s="51"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="51"/>
-      <c r="V96" s="51"/>
-      <c r="W96" s="51"/>
-      <c r="X96" s="51"/>
-    </row>
-    <row r="97" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="50"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="P96" s="50"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50"/>
+      <c r="U96" s="50"/>
+      <c r="V96" s="50"/>
+      <c r="W96" s="50"/>
+      <c r="X96" s="50"/>
+    </row>
+    <row r="97" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>143</v>
       </c>
@@ -4164,24 +4187,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B98" s="13" t="s">
         <v>59</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P98" s="45"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
-      <c r="U98" s="42"/>
-      <c r="V98" s="42"/>
-      <c r="W98" s="42"/>
-      <c r="X98" s="42"/>
-    </row>
-    <row r="99" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P98" s="44"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+    </row>
+    <row r="99" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4207,36 +4230,36 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="42"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
       <c r="N100" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O100" s="17"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="42"/>
-      <c r="R100" s="42"/>
-      <c r="S100" s="42"/>
-      <c r="T100" s="42"/>
-      <c r="U100" s="42"/>
-      <c r="V100" s="42"/>
-      <c r="W100" s="42"/>
-      <c r="X100" s="42"/>
-    </row>
-    <row r="101" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P100" s="40"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="41"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="41"/>
+      <c r="X100" s="41"/>
+    </row>
+    <row r="101" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
         <v>64</v>
@@ -4244,29 +4267,29 @@
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="21"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
       <c r="N101" s="15" t="s">
         <v>65</v>
       </c>
       <c r="O101" s="20"/>
-      <c r="P101" s="48"/>
-      <c r="Q101" s="49"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
-      <c r="U101" s="49"/>
-      <c r="V101" s="49"/>
-      <c r="W101" s="49"/>
-      <c r="X101" s="49"/>
-    </row>
-    <row r="102" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="47"/>
+      <c r="Q101" s="48"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="48"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="48"/>
+      <c r="W101" s="48"/>
+      <c r="X101" s="48"/>
+    </row>
+    <row r="102" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4294,7 +4317,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
         <v>68</v>
@@ -4302,55 +4325,55 @@
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
       <c r="J103" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
       <c r="Q103" s="11" t="s">
         <v>70</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="40"/>
       <c r="W103" s="13"/>
       <c r="X103" s="13"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B104" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I104" s="41"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
-      <c r="Q104" s="42"/>
-      <c r="R104" s="42"/>
-      <c r="S104" s="42"/>
-      <c r="T104" s="42"/>
-      <c r="U104" s="42"/>
-      <c r="V104" s="42"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I104" s="40"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="41"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+      <c r="V104" s="41"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C105" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>146</v>
       </c>
@@ -4358,24 +4381,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B107" s="13" t="s">
         <v>59</v>
       </c>
       <c r="J107" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P107" s="45"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="42"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-    </row>
-    <row r="108" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P107" s="44"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+      <c r="S107" s="41"/>
+      <c r="T107" s="41"/>
+      <c r="U107" s="41"/>
+      <c r="V107" s="41"/>
+      <c r="W107" s="41"/>
+      <c r="X107" s="41"/>
+    </row>
+    <row r="108" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4401,36 +4424,36 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
       <c r="N109" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O109" s="17"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="42"/>
-      <c r="V109" s="42"/>
-      <c r="W109" s="42"/>
-      <c r="X109" s="42"/>
-    </row>
-    <row r="110" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P109" s="40"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+      <c r="S109" s="41"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+    </row>
+    <row r="110" spans="1:24" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
         <v>64</v>
@@ -4438,29 +4461,29 @@
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="21"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="61"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="61"/>
-      <c r="L110" s="61"/>
-      <c r="M110" s="61"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
       <c r="N110" s="15" t="s">
         <v>65</v>
       </c>
       <c r="O110" s="20"/>
-      <c r="P110" s="48"/>
-      <c r="Q110" s="49"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="49"/>
-      <c r="U110" s="49"/>
-      <c r="V110" s="49"/>
-      <c r="W110" s="49"/>
-      <c r="X110" s="49"/>
-    </row>
-    <row r="111" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P110" s="47"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
+      <c r="W110" s="48"/>
+      <c r="X110" s="48"/>
+    </row>
+    <row r="111" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4488,7 +4511,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="13" t="s">
         <v>68</v>
@@ -4496,31 +4519,31 @@
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
       <c r="J112" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
       <c r="Q112" s="11" t="s">
         <v>70</v>
       </c>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
+      <c r="T112" s="40"/>
+      <c r="U112" s="40"/>
+      <c r="V112" s="40"/>
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>148</v>
       </c>
@@ -4531,29 +4554,29 @@
       <c r="D113" s="28"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="50"/>
       <c r="K113" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
+      <c r="M113" s="50"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="50"/>
+      <c r="P113" s="50"/>
       <c r="Q113" s="28" t="s">
         <v>107</v>
       </c>
       <c r="R113" s="28"/>
-      <c r="S113" s="51"/>
-      <c r="T113" s="51"/>
-      <c r="U113" s="51"/>
-      <c r="V113" s="51"/>
+      <c r="S113" s="50"/>
+      <c r="T113" s="50"/>
+      <c r="U113" s="50"/>
+      <c r="V113" s="50"/>
       <c r="W113" s="28"/>
       <c r="X113" s="28"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
         <v>149</v>
       </c>
@@ -4564,75 +4587,75 @@
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="51"/>
-      <c r="O114" s="51"/>
-      <c r="P114" s="51"/>
-      <c r="Q114" s="51"/>
-      <c r="R114" s="51"/>
-      <c r="S114" s="51"/>
-      <c r="T114" s="51"/>
-      <c r="U114" s="51"/>
-      <c r="V114" s="51"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="50"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="50"/>
+      <c r="P114" s="50"/>
+      <c r="Q114" s="50"/>
+      <c r="R114" s="50"/>
+      <c r="S114" s="50"/>
+      <c r="T114" s="50"/>
+      <c r="U114" s="50"/>
+      <c r="V114" s="50"/>
       <c r="W114" s="28"/>
       <c r="X114" s="28"/>
     </row>
-    <row r="115" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="62" t="s">
+    <row r="115" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
-      <c r="N115" s="62"/>
-      <c r="O115" s="62"/>
-      <c r="P115" s="62"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="62"/>
-      <c r="S115" s="62"/>
-      <c r="T115" s="62"/>
-      <c r="U115" s="62"/>
-      <c r="V115" s="62"/>
-      <c r="W115" s="62"/>
-      <c r="X115" s="62"/>
-    </row>
-    <row r="116" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="63"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="63"/>
+      <c r="R115" s="63"/>
+      <c r="S115" s="63"/>
+      <c r="T115" s="63"/>
+      <c r="U115" s="63"/>
+      <c r="V115" s="63"/>
+      <c r="W115" s="63"/>
+      <c r="X115" s="63"/>
+    </row>
+    <row r="116" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
       <c r="G116" s="28"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
-      <c r="O116" s="51"/>
+      <c r="H116" s="50"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="50"/>
+      <c r="N116" s="50"/>
+      <c r="O116" s="50"/>
       <c r="P116" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Q116" s="51"/>
-      <c r="R116" s="51"/>
-      <c r="S116" s="51"/>
+      <c r="Q116" s="50"/>
+      <c r="R116" s="50"/>
+      <c r="S116" s="50"/>
       <c r="T116" s="28" t="s">
         <v>44</v>
       </c>
@@ -4641,7 +4664,7 @@
       <c r="W116" s="28"/>
       <c r="X116" s="28"/>
     </row>
-    <row r="117" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="30" t="s">
         <v>153</v>
       </c>
@@ -4670,35 +4693,35 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="51"/>
-      <c r="K118" s="51"/>
-      <c r="L118" s="51"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="50"/>
       <c r="M118" s="28"/>
-      <c r="N118" s="51"/>
-      <c r="O118" s="51"/>
-      <c r="P118" s="51"/>
-      <c r="Q118" s="51"/>
-      <c r="R118" s="51"/>
-      <c r="S118" s="51"/>
-      <c r="T118" s="51"/>
-      <c r="U118" s="51"/>
-      <c r="V118" s="51"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="50"/>
+      <c r="P118" s="50"/>
+      <c r="Q118" s="50"/>
+      <c r="R118" s="50"/>
+      <c r="S118" s="50"/>
+      <c r="T118" s="50"/>
+      <c r="U118" s="50"/>
+      <c r="V118" s="50"/>
       <c r="W118" s="28"/>
       <c r="X118" s="28"/>
     </row>
-    <row r="119" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -4726,7 +4749,7 @@
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
     </row>
-    <row r="120" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -4753,51 +4776,51 @@
       <c r="W120" s="28"/>
       <c r="X120" s="28"/>
     </row>
-    <row r="121" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
-      <c r="B121" s="60" t="s">
+      <c r="B121" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-      <c r="N121" s="60"/>
-      <c r="O121" s="60"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
-      <c r="R121" s="60"/>
-      <c r="S121" s="60"/>
-      <c r="T121" s="60"/>
-      <c r="U121" s="60"/>
-      <c r="V121" s="60"/>
-      <c r="W121" s="60"/>
-      <c r="X121" s="60"/>
-    </row>
-    <row r="122" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="79"/>
+      <c r="N121" s="79"/>
+      <c r="O121" s="79"/>
+      <c r="P121" s="79"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
+      <c r="W121" s="79"/>
+      <c r="X121" s="79"/>
+    </row>
+    <row r="122" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
       <c r="H122" s="28"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="51"/>
-      <c r="M122" s="51"/>
-      <c r="N122" s="51"/>
-      <c r="O122" s="51"/>
-      <c r="P122" s="51"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="50"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="50"/>
+      <c r="M122" s="50"/>
+      <c r="N122" s="50"/>
+      <c r="O122" s="50"/>
+      <c r="P122" s="50"/>
       <c r="Q122" s="28"/>
       <c r="R122" s="28"/>
       <c r="S122" s="28"/>
@@ -4807,7 +4830,7 @@
       <c r="W122" s="28"/>
       <c r="X122" s="28"/>
     </row>
-    <row r="123" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30"/>
       <c r="B123" s="5" t="s">
         <v>153</v>
@@ -4836,51 +4859,51 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
-      <c r="B124" s="60" t="s">
+      <c r="B124" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="60"/>
-      <c r="N124" s="60"/>
-      <c r="O124" s="60"/>
-      <c r="P124" s="60"/>
-      <c r="Q124" s="60"/>
-      <c r="R124" s="60"/>
-      <c r="S124" s="60"/>
-      <c r="T124" s="60"/>
-      <c r="U124" s="60"/>
-      <c r="V124" s="60"/>
-      <c r="W124" s="60"/>
-      <c r="X124" s="60"/>
-    </row>
-    <row r="125" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="79"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
+      <c r="I124" s="79"/>
+      <c r="J124" s="79"/>
+      <c r="K124" s="79"/>
+      <c r="L124" s="79"/>
+      <c r="M124" s="79"/>
+      <c r="N124" s="79"/>
+      <c r="O124" s="79"/>
+      <c r="P124" s="79"/>
+      <c r="Q124" s="79"/>
+      <c r="R124" s="79"/>
+      <c r="S124" s="79"/>
+      <c r="T124" s="79"/>
+      <c r="U124" s="79"/>
+      <c r="V124" s="79"/>
+      <c r="W124" s="79"/>
+      <c r="X124" s="79"/>
+    </row>
+    <row r="125" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
       <c r="H125" s="28"/>
-      <c r="I125" s="51"/>
-      <c r="J125" s="51"/>
-      <c r="K125" s="51"/>
-      <c r="L125" s="51"/>
-      <c r="M125" s="51"/>
-      <c r="N125" s="51"/>
-      <c r="O125" s="51"/>
-      <c r="P125" s="51"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="50"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
+      <c r="P125" s="50"/>
       <c r="Q125" s="28"/>
       <c r="R125" s="28"/>
       <c r="S125" s="28"/>
@@ -4890,14 +4913,14 @@
       <c r="W125" s="28"/>
       <c r="X125" s="28"/>
     </row>
-    <row r="126" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30"/>
-      <c r="B126" s="52" t="s">
+      <c r="B126" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -4918,13 +4941,13 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
     </row>
-    <row r="127" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="53" t="s">
+    <row r="127" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="39"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="28"/>
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
@@ -4940,7 +4963,7 @@
       <c r="W127" s="28"/>
       <c r="X127" s="28"/>
     </row>
-    <row r="128" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31" t="s">
         <v>159</v>
       </c>
@@ -4961,7 +4984,7 @@
       <c r="W128" s="28"/>
       <c r="X128" s="28"/>
     </row>
-    <row r="129" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="s">
         <v>160</v>
       </c>
@@ -4982,7 +5005,7 @@
       <c r="W129" s="28"/>
       <c r="X129" s="28"/>
     </row>
-    <row r="130" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="s">
         <v>161</v>
       </c>
@@ -5003,7 +5026,7 @@
       <c r="W130" s="28"/>
       <c r="X130" s="28"/>
     </row>
-    <row r="131" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="s">
         <v>162</v>
       </c>
@@ -5025,7 +5048,7 @@
       <c r="W131" s="28"/>
       <c r="X131" s="28"/>
     </row>
-    <row r="132" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="31" t="s">
         <v>163</v>
       </c>
@@ -5052,7 +5075,7 @@
       <c r="W132" s="28"/>
       <c r="X132" s="28"/>
     </row>
-    <row r="133" spans="1:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="s">
         <v>164</v>
       </c>
@@ -5076,7 +5099,7 @@
       <c r="W133" s="28"/>
       <c r="X133" s="28"/>
     </row>
-    <row r="134" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -5101,7 +5124,7 @@
       <c r="W134" s="28"/>
       <c r="X134" s="28"/>
     </row>
-    <row r="135" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -5126,7 +5149,7 @@
       <c r="W135" s="28"/>
       <c r="X135" s="28"/>
     </row>
-    <row r="136" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -5151,7 +5174,7 @@
       <c r="W136" s="28"/>
       <c r="X136" s="28"/>
     </row>
-    <row r="137" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -5176,7 +5199,7 @@
       <c r="W137" s="28"/>
       <c r="X137" s="28"/>
     </row>
-    <row r="138" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -5201,7 +5224,7 @@
       <c r="W138" s="28"/>
       <c r="X138" s="28"/>
     </row>
-    <row r="139" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -5226,7 +5249,7 @@
       <c r="W139" s="28"/>
       <c r="X139" s="28"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -5252,7 +5275,7 @@
       <c r="W140" s="28"/>
       <c r="X140" s="28"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -5278,7 +5301,7 @@
       <c r="W141" s="28"/>
       <c r="X141" s="28"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -5304,7 +5327,7 @@
       <c r="W142" s="28"/>
       <c r="X142" s="28"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -5330,7 +5353,7 @@
       <c r="W143" s="28"/>
       <c r="X143" s="28"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -5356,7 +5379,7 @@
       <c r="W144" s="28"/>
       <c r="X144" s="28"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -5382,7 +5405,7 @@
       <c r="W145" s="28"/>
       <c r="X145" s="28"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -5408,7 +5431,7 @@
       <c r="W146" s="28"/>
       <c r="X146" s="28"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -5434,7 +5457,7 @@
       <c r="W147" s="28"/>
       <c r="X147" s="28"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -5460,7 +5483,7 @@
       <c r="W148" s="28"/>
       <c r="X148" s="28"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -5486,7 +5509,7 @@
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -5512,7 +5535,7 @@
       <c r="W150" s="28"/>
       <c r="X150" s="28"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -5538,7 +5561,7 @@
       <c r="W151" s="28"/>
       <c r="X151" s="28"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -5564,7 +5587,7 @@
       <c r="W152" s="28"/>
       <c r="X152" s="28"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -5590,7 +5613,7 @@
       <c r="W153" s="28"/>
       <c r="X153" s="28"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -5616,7 +5639,7 @@
       <c r="W154" s="28"/>
       <c r="X154" s="28"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -5642,7 +5665,7 @@
       <c r="W155" s="28"/>
       <c r="X155" s="28"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -5668,7 +5691,7 @@
       <c r="W156" s="28"/>
       <c r="X156" s="28"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -5694,7 +5717,7 @@
       <c r="W157" s="28"/>
       <c r="X157" s="28"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -5720,7 +5743,7 @@
       <c r="W158" s="28"/>
       <c r="X158" s="28"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -5746,7 +5769,7 @@
       <c r="W159" s="28"/>
       <c r="X159" s="28"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -5772,7 +5795,7 @@
       <c r="W160" s="28"/>
       <c r="X160" s="28"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -5798,7 +5821,7 @@
       <c r="W161" s="28"/>
       <c r="X161" s="28"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -5824,7 +5847,7 @@
       <c r="W162" s="28"/>
       <c r="X162" s="28"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -5850,7 +5873,7 @@
       <c r="W163" s="28"/>
       <c r="X163" s="28"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -5876,7 +5899,7 @@
       <c r="W164" s="28"/>
       <c r="X164" s="28"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -5902,7 +5925,7 @@
       <c r="W165" s="28"/>
       <c r="X165" s="28"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -5928,7 +5951,7 @@
       <c r="W166" s="28"/>
       <c r="X166" s="28"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -5954,7 +5977,7 @@
       <c r="W167" s="28"/>
       <c r="X167" s="28"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -5980,7 +6003,7 @@
       <c r="W168" s="28"/>
       <c r="X168" s="28"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -6006,7 +6029,7 @@
       <c r="W169" s="28"/>
       <c r="X169" s="28"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -6032,7 +6055,7 @@
       <c r="W170" s="28"/>
       <c r="X170" s="28"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -6058,7 +6081,7 @@
       <c r="W171" s="28"/>
       <c r="X171" s="28"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -6084,7 +6107,7 @@
       <c r="W172" s="28"/>
       <c r="X172" s="28"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -6110,7 +6133,7 @@
       <c r="W173" s="28"/>
       <c r="X173" s="28"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -6136,7 +6159,7 @@
       <c r="W174" s="28"/>
       <c r="X174" s="28"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -6162,7 +6185,7 @@
       <c r="W175" s="28"/>
       <c r="X175" s="28"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -6188,7 +6211,7 @@
       <c r="W176" s="28"/>
       <c r="X176" s="28"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -6214,7 +6237,7 @@
       <c r="W177" s="28"/>
       <c r="X177" s="28"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -6240,7 +6263,7 @@
       <c r="W178" s="28"/>
       <c r="X178" s="28"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -6266,7 +6289,7 @@
       <c r="W179" s="28"/>
       <c r="X179" s="28"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -6292,7 +6315,7 @@
       <c r="W180" s="28"/>
       <c r="X180" s="28"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -6318,7 +6341,7 @@
       <c r="W181" s="28"/>
       <c r="X181" s="28"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -6344,7 +6367,7 @@
       <c r="W182" s="28"/>
       <c r="X182" s="28"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -6370,7 +6393,7 @@
       <c r="W183" s="28"/>
       <c r="X183" s="28"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -6396,7 +6419,7 @@
       <c r="W184" s="28"/>
       <c r="X184" s="28"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -6422,7 +6445,7 @@
       <c r="W185" s="28"/>
       <c r="X185" s="28"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -6448,7 +6471,7 @@
       <c r="W186" s="28"/>
       <c r="X186" s="28"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -6474,7 +6497,7 @@
       <c r="W187" s="28"/>
       <c r="X187" s="28"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -6500,7 +6523,7 @@
       <c r="W188" s="28"/>
       <c r="X188" s="28"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -6526,7 +6549,7 @@
       <c r="W189" s="28"/>
       <c r="X189" s="28"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -6552,7 +6575,7 @@
       <c r="W190" s="28"/>
       <c r="X190" s="28"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -6578,7 +6601,7 @@
       <c r="W191" s="28"/>
       <c r="X191" s="28"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -6604,7 +6627,7 @@
       <c r="W192" s="28"/>
       <c r="X192" s="28"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -6630,7 +6653,7 @@
       <c r="W193" s="28"/>
       <c r="X193" s="28"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -6656,7 +6679,7 @@
       <c r="W194" s="28"/>
       <c r="X194" s="28"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -6682,7 +6705,7 @@
       <c r="W195" s="28"/>
       <c r="X195" s="28"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -6708,7 +6731,7 @@
       <c r="W196" s="28"/>
       <c r="X196" s="28"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -6734,7 +6757,7 @@
       <c r="W197" s="28"/>
       <c r="X197" s="28"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -6760,7 +6783,7 @@
       <c r="W198" s="28"/>
       <c r="X198" s="28"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -6786,7 +6809,7 @@
       <c r="W199" s="28"/>
       <c r="X199" s="28"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -6812,7 +6835,7 @@
       <c r="W200" s="28"/>
       <c r="X200" s="28"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -6838,7 +6861,7 @@
       <c r="W201" s="28"/>
       <c r="X201" s="28"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -6864,7 +6887,7 @@
       <c r="W202" s="28"/>
       <c r="X202" s="28"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -6890,7 +6913,7 @@
       <c r="W203" s="28"/>
       <c r="X203" s="28"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -6916,7 +6939,7 @@
       <c r="W204" s="28"/>
       <c r="X204" s="28"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -6942,7 +6965,7 @@
       <c r="W205" s="28"/>
       <c r="X205" s="28"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -6968,7 +6991,7 @@
       <c r="W206" s="28"/>
       <c r="X206" s="28"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -6994,7 +7017,7 @@
       <c r="W207" s="28"/>
       <c r="X207" s="28"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -7020,7 +7043,7 @@
       <c r="W208" s="28"/>
       <c r="X208" s="28"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -7046,7 +7069,7 @@
       <c r="W209" s="28"/>
       <c r="X209" s="28"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -7072,7 +7095,7 @@
       <c r="W210" s="28"/>
       <c r="X210" s="28"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -7098,7 +7121,7 @@
       <c r="W211" s="28"/>
       <c r="X211" s="28"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -7124,7 +7147,7 @@
       <c r="W212" s="28"/>
       <c r="X212" s="28"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -7150,7 +7173,7 @@
       <c r="W213" s="28"/>
       <c r="X213" s="28"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -7176,7 +7199,7 @@
       <c r="W214" s="28"/>
       <c r="X214" s="28"/>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -7202,7 +7225,7 @@
       <c r="W215" s="28"/>
       <c r="X215" s="28"/>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -7228,7 +7251,7 @@
       <c r="W216" s="28"/>
       <c r="X216" s="28"/>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -7254,7 +7277,7 @@
       <c r="W217" s="28"/>
       <c r="X217" s="28"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -7280,7 +7303,7 @@
       <c r="W218" s="28"/>
       <c r="X218" s="28"/>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -7306,7 +7329,7 @@
       <c r="W219" s="28"/>
       <c r="X219" s="28"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -7332,7 +7355,7 @@
       <c r="W220" s="28"/>
       <c r="X220" s="28"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -7358,7 +7381,7 @@
       <c r="W221" s="28"/>
       <c r="X221" s="28"/>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -7384,7 +7407,7 @@
       <c r="W222" s="28"/>
       <c r="X222" s="28"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -7410,7 +7433,7 @@
       <c r="W223" s="28"/>
       <c r="X223" s="28"/>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -7436,7 +7459,7 @@
       <c r="W224" s="28"/>
       <c r="X224" s="28"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -7462,7 +7485,7 @@
       <c r="W225" s="28"/>
       <c r="X225" s="28"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -7488,7 +7511,7 @@
       <c r="W226" s="28"/>
       <c r="X226" s="28"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
@@ -7514,7 +7537,7 @@
       <c r="W227" s="28"/>
       <c r="X227" s="28"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
@@ -7540,7 +7563,7 @@
       <c r="W228" s="28"/>
       <c r="X228" s="28"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
@@ -7566,7 +7589,7 @@
       <c r="W229" s="28"/>
       <c r="X229" s="28"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -7592,7 +7615,7 @@
       <c r="W230" s="28"/>
       <c r="X230" s="28"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -7618,7 +7641,7 @@
       <c r="W231" s="28"/>
       <c r="X231" s="28"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -7644,7 +7667,7 @@
       <c r="W232" s="28"/>
       <c r="X232" s="28"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
@@ -7670,7 +7693,7 @@
       <c r="W233" s="28"/>
       <c r="X233" s="28"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -7696,7 +7719,7 @@
       <c r="W234" s="28"/>
       <c r="X234" s="28"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
@@ -7722,7 +7745,7 @@
       <c r="W235" s="28"/>
       <c r="X235" s="28"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
@@ -7748,7 +7771,7 @@
       <c r="W236" s="28"/>
       <c r="X236" s="28"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
@@ -7774,7 +7797,7 @@
       <c r="W237" s="28"/>
       <c r="X237" s="28"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -7800,7 +7823,7 @@
       <c r="W238" s="28"/>
       <c r="X238" s="28"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" s="28"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -7826,7 +7849,7 @@
       <c r="W239" s="28"/>
       <c r="X239" s="28"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" s="28"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -7852,7 +7875,7 @@
       <c r="W240" s="28"/>
       <c r="X240" s="28"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" s="28"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -7878,7 +7901,7 @@
       <c r="W241" s="28"/>
       <c r="X241" s="28"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" s="28"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -7904,7 +7927,7 @@
       <c r="W242" s="28"/>
       <c r="X242" s="28"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" s="28"/>
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
@@ -7930,7 +7953,7 @@
       <c r="W243" s="28"/>
       <c r="X243" s="28"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" s="28"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -7956,7 +7979,7 @@
       <c r="W244" s="28"/>
       <c r="X244" s="28"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" s="28"/>
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
@@ -7982,7 +8005,7 @@
       <c r="W245" s="28"/>
       <c r="X245" s="28"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" s="28"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -8008,7 +8031,7 @@
       <c r="W246" s="28"/>
       <c r="X246" s="28"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" s="28"/>
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
@@ -8034,7 +8057,7 @@
       <c r="W247" s="28"/>
       <c r="X247" s="28"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" s="28"/>
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
@@ -8060,7 +8083,7 @@
       <c r="W248" s="28"/>
       <c r="X248" s="28"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" s="28"/>
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
@@ -8086,7 +8109,7 @@
       <c r="W249" s="28"/>
       <c r="X249" s="28"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" s="28"/>
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
@@ -8112,7 +8135,7 @@
       <c r="W250" s="28"/>
       <c r="X250" s="28"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" s="28"/>
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
@@ -8138,7 +8161,7 @@
       <c r="W251" s="28"/>
       <c r="X251" s="28"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" s="28"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -8164,7 +8187,7 @@
       <c r="W252" s="28"/>
       <c r="X252" s="28"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" s="28"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -8190,7 +8213,7 @@
       <c r="W253" s="28"/>
       <c r="X253" s="28"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" s="28"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -8216,7 +8239,7 @@
       <c r="W254" s="28"/>
       <c r="X254" s="28"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" s="28"/>
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
@@ -8242,7 +8265,7 @@
       <c r="W255" s="28"/>
       <c r="X255" s="28"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" s="28"/>
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
@@ -8268,7 +8291,7 @@
       <c r="W256" s="28"/>
       <c r="X256" s="28"/>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" s="28"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -8294,7 +8317,7 @@
       <c r="W257" s="28"/>
       <c r="X257" s="28"/>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" s="28"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -8320,7 +8343,7 @@
       <c r="W258" s="28"/>
       <c r="X258" s="28"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" s="28"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -8346,7 +8369,7 @@
       <c r="W259" s="28"/>
       <c r="X259" s="28"/>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" s="28"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -8372,7 +8395,7 @@
       <c r="W260" s="28"/>
       <c r="X260" s="28"/>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" s="28"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -8398,7 +8421,7 @@
       <c r="W261" s="28"/>
       <c r="X261" s="28"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" s="28"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -8424,7 +8447,7 @@
       <c r="W262" s="28"/>
       <c r="X262" s="28"/>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" s="28"/>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -8450,7 +8473,7 @@
       <c r="W263" s="28"/>
       <c r="X263" s="28"/>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" s="28"/>
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
@@ -8476,7 +8499,7 @@
       <c r="W264" s="28"/>
       <c r="X264" s="28"/>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" s="28"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -8502,7 +8525,7 @@
       <c r="W265" s="28"/>
       <c r="X265" s="28"/>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" s="28"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -8528,7 +8551,7 @@
       <c r="W266" s="28"/>
       <c r="X266" s="28"/>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" s="28"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -8554,7 +8577,7 @@
       <c r="W267" s="28"/>
       <c r="X267" s="28"/>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" s="28"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -8580,7 +8603,7 @@
       <c r="W268" s="28"/>
       <c r="X268" s="28"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" s="28"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -8606,7 +8629,7 @@
       <c r="W269" s="28"/>
       <c r="X269" s="28"/>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" s="28"/>
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
@@ -8632,7 +8655,7 @@
       <c r="W270" s="28"/>
       <c r="X270" s="28"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" s="28"/>
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
@@ -8658,7 +8681,7 @@
       <c r="W271" s="28"/>
       <c r="X271" s="28"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A272" s="28"/>
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
@@ -8684,7 +8707,7 @@
       <c r="W272" s="28"/>
       <c r="X272" s="28"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" s="28"/>
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
@@ -8710,7 +8733,7 @@
       <c r="W273" s="28"/>
       <c r="X273" s="28"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" s="28"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -8736,7 +8759,7 @@
       <c r="W274" s="28"/>
       <c r="X274" s="28"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" s="28"/>
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
@@ -8762,7 +8785,7 @@
       <c r="W275" s="28"/>
       <c r="X275" s="28"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276" s="28"/>
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
@@ -8788,7 +8811,7 @@
       <c r="W276" s="28"/>
       <c r="X276" s="28"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277" s="28"/>
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
@@ -8814,7 +8837,7 @@
       <c r="W277" s="28"/>
       <c r="X277" s="28"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278" s="28"/>
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
@@ -8840,7 +8863,7 @@
       <c r="W278" s="28"/>
       <c r="X278" s="28"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279" s="28"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -8866,7 +8889,7 @@
       <c r="W279" s="28"/>
       <c r="X279" s="28"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280" s="28"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -8892,7 +8915,7 @@
       <c r="W280" s="28"/>
       <c r="X280" s="28"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281" s="28"/>
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
@@ -8918,7 +8941,7 @@
       <c r="W281" s="28"/>
       <c r="X281" s="28"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282" s="28"/>
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
@@ -8944,7 +8967,7 @@
       <c r="W282" s="28"/>
       <c r="X282" s="28"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283" s="28"/>
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
@@ -8972,6 +8995,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B124:X124"/>
+    <mergeCell ref="D92:X92"/>
+    <mergeCell ref="F101:M101"/>
+    <mergeCell ref="F110:M110"/>
+    <mergeCell ref="A115:X115"/>
+    <mergeCell ref="B121:X121"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="B68:X68"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="A79:X79"/>
+    <mergeCell ref="B88:K89"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="L26:X26"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="N23:X23"/>
     <mergeCell ref="B66:X66"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="A5:X5"/>
@@ -8988,33 +9035,9 @@
     <mergeCell ref="B61:X61"/>
     <mergeCell ref="F53:X54"/>
     <mergeCell ref="D31:X31"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="L26:X26"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="S90:X90"/>
-    <mergeCell ref="B68:X68"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="A79:X79"/>
-    <mergeCell ref="B88:K89"/>
-    <mergeCell ref="B124:X124"/>
-    <mergeCell ref="D92:X92"/>
-    <mergeCell ref="F101:M101"/>
-    <mergeCell ref="F110:M110"/>
-    <mergeCell ref="A115:X115"/>
-    <mergeCell ref="B121:X121"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
+  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.34" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
